--- a/data/all-authors.xlsx
+++ b/data/all-authors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\wip\SLM Logistics BP\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\wip\git\reportingslroo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="801">
   <si>
     <t>Paper ID</t>
   </si>
@@ -1598,15 +1598,6 @@
     <t>Wing Bun Lee</t>
   </si>
   <si>
-    <t>94/8201</t>
-  </si>
-  <si>
-    <t>Valentina Boschian</t>
-  </si>
-  <si>
-    <t>Mariagrazia Dotoli</t>
-  </si>
-  <si>
     <t>05/8431</t>
   </si>
   <si>
@@ -1637,9 +1628,6 @@
     <t>08/7210</t>
   </si>
   <si>
-    <t>03/4162</t>
-  </si>
-  <si>
     <t>Oliver Müller 0001</t>
   </si>
   <si>
@@ -2088,18 +2076,6 @@
   </si>
   <si>
     <t>Dragos Damian</t>
-  </si>
-  <si>
-    <t>182/9741</t>
-  </si>
-  <si>
-    <t>Jia Xiao</t>
-  </si>
-  <si>
-    <t>91/7954</t>
-  </si>
-  <si>
-    <t>Wenming Yuan</t>
   </si>
   <si>
     <t>59/6461</t>
@@ -2665,8 +2641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D570" totalsRowShown="0">
-  <autoFilter ref="A1:D570"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D556" totalsRowShown="0">
+  <autoFilter ref="A1:D556"/>
   <sortState ref="A2:D569">
     <sortCondition ref="A1:A569"/>
   </sortState>
@@ -2943,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D570"/>
+  <dimension ref="A1:D556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="A445" sqref="A445:XFD447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2968,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2982,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2996,7 +2972,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3010,7 +2986,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3024,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3038,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3052,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3066,7 +3042,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3080,7 +3056,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3091,10 +3067,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D10" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3108,7 +3084,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3122,7 +3098,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3136,7 +3112,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3150,7 +3126,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3164,7 +3140,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3178,7 +3154,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3192,7 +3168,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3206,7 +3182,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3220,7 +3196,7 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3234,7 +3210,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3248,7 +3224,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3259,10 +3235,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D22" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3276,7 +3252,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3290,7 +3266,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3304,7 +3280,7 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3318,7 +3294,7 @@
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3332,7 +3308,7 @@
         <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3346,7 +3322,7 @@
         <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3360,7 +3336,7 @@
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3374,7 +3350,7 @@
         <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3388,7 +3364,7 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3402,7 +3378,7 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3416,7 +3392,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3430,7 +3406,7 @@
         <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3444,7 +3420,7 @@
         <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3458,7 +3434,7 @@
         <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3472,7 +3448,7 @@
         <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3486,7 +3462,7 @@
         <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3500,7 +3476,7 @@
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3514,7 +3490,7 @@
         <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3528,7 +3504,7 @@
         <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3542,7 +3518,7 @@
         <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3556,7 +3532,7 @@
         <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3570,7 +3546,7 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3584,7 +3560,7 @@
         <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3595,10 +3571,10 @@
         <v>83</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D46" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3606,13 +3582,13 @@
         <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3626,7 +3602,7 @@
         <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3640,7 +3616,7 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3654,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3668,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3682,7 +3658,7 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3696,7 +3672,7 @@
         <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3710,7 +3686,7 @@
         <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3724,7 +3700,7 @@
         <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3738,7 +3714,7 @@
         <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3752,7 +3728,7 @@
         <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3766,7 +3742,7 @@
         <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3780,7 +3756,7 @@
         <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3794,7 +3770,7 @@
         <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3808,7 +3784,7 @@
         <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3822,7 +3798,7 @@
         <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3836,7 +3812,7 @@
         <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3850,7 +3826,7 @@
         <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3864,7 +3840,7 @@
         <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3878,7 +3854,7 @@
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3892,7 +3868,7 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3906,7 +3882,7 @@
         <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3917,10 +3893,10 @@
         <v>83</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D69" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3934,7 +3910,7 @@
         <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3948,7 +3924,7 @@
         <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3962,7 +3938,7 @@
         <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3976,7 +3952,7 @@
         <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3990,7 +3966,7 @@
         <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4004,7 +3980,7 @@
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4018,7 +3994,7 @@
         <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4032,7 +4008,7 @@
         <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4046,7 +4022,7 @@
         <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4060,7 +4036,7 @@
         <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4074,7 +4050,7 @@
         <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4088,7 +4064,7 @@
         <v>120</v>
       </c>
       <c r="D81" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4102,7 +4078,7 @@
         <v>126</v>
       </c>
       <c r="D82" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4116,7 +4092,7 @@
         <v>56</v>
       </c>
       <c r="D83" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4130,7 +4106,7 @@
         <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4144,7 +4120,7 @@
         <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4158,7 +4134,7 @@
         <v>128</v>
       </c>
       <c r="D86" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4172,7 +4148,7 @@
         <v>126</v>
       </c>
       <c r="D87" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4186,7 +4162,7 @@
         <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4200,7 +4176,7 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4214,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4225,10 +4201,10 @@
         <v>129</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D91" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4236,13 +4212,13 @@
         <v>139</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D92" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4256,7 +4232,7 @@
         <v>131</v>
       </c>
       <c r="D93" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4270,7 +4246,7 @@
         <v>134</v>
       </c>
       <c r="D94" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4284,7 +4260,7 @@
         <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4298,7 +4274,7 @@
         <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4312,7 +4288,7 @@
         <v>138</v>
       </c>
       <c r="D97" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4326,7 +4302,7 @@
         <v>144</v>
       </c>
       <c r="D98" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4334,13 +4310,13 @@
         <v>166</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D99" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4348,13 +4324,13 @@
         <v>166</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D100" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4368,7 +4344,7 @@
         <v>142</v>
       </c>
       <c r="D101" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4376,13 +4352,13 @@
         <v>166</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D102" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4390,13 +4366,13 @@
         <v>166</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D103" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4404,13 +4380,13 @@
         <v>166</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="D104" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4418,13 +4394,13 @@
         <v>166</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="D105" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4432,13 +4408,13 @@
         <v>178</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D106" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4446,13 +4422,13 @@
         <v>178</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D107" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4460,13 +4436,13 @@
         <v>178</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D108" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4474,13 +4450,13 @@
         <v>178</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D109" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4494,7 +4470,7 @@
         <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4502,13 +4478,13 @@
         <v>205</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D111" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4516,13 +4492,13 @@
         <v>205</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D112" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4530,13 +4506,13 @@
         <v>205</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D113" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4544,13 +4520,13 @@
         <v>205</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D114" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4558,13 +4534,13 @@
         <v>205</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D115" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4572,13 +4548,13 @@
         <v>205</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D116" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4592,7 +4568,7 @@
         <v>146</v>
       </c>
       <c r="D117" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4606,7 +4582,7 @@
         <v>152</v>
       </c>
       <c r="D118" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4620,7 +4596,7 @@
         <v>148</v>
       </c>
       <c r="D119" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4634,7 +4610,7 @@
         <v>150</v>
       </c>
       <c r="D120" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4648,7 +4624,7 @@
         <v>128</v>
       </c>
       <c r="D121" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4656,13 +4632,13 @@
         <v>265</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D122" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4673,10 +4649,10 @@
         <v>153</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D123" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4690,7 +4666,7 @@
         <v>160</v>
       </c>
       <c r="D124" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4704,7 +4680,7 @@
         <v>158</v>
       </c>
       <c r="D125" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4718,7 +4694,7 @@
         <v>156</v>
       </c>
       <c r="D126" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4732,7 +4708,7 @@
         <v>164</v>
       </c>
       <c r="D127" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4746,7 +4722,7 @@
         <v>166</v>
       </c>
       <c r="D128" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4760,7 +4736,7 @@
         <v>162</v>
       </c>
       <c r="D129" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4768,13 +4744,13 @@
         <v>1901</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D130" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4782,13 +4758,13 @@
         <v>1901</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D131" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4796,13 +4772,13 @@
         <v>1901</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D132" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4810,13 +4786,13 @@
         <v>1901</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D133" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4824,13 +4800,13 @@
         <v>1901</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D134" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4844,7 +4820,7 @@
         <v>110</v>
       </c>
       <c r="D135" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4858,7 +4834,7 @@
         <v>106</v>
       </c>
       <c r="D136" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4872,7 +4848,7 @@
         <v>108</v>
       </c>
       <c r="D137" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4886,7 +4862,7 @@
         <v>168</v>
       </c>
       <c r="D138" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4900,7 +4876,7 @@
         <v>170</v>
       </c>
       <c r="D139" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4914,7 +4890,7 @@
         <v>74</v>
       </c>
       <c r="D140" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4922,13 +4898,13 @@
         <v>1913</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D141" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4936,13 +4912,13 @@
         <v>1913</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D142" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4950,13 +4926,13 @@
         <v>1913</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D143" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4964,13 +4940,13 @@
         <v>1913</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D144" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4978,13 +4954,13 @@
         <v>1913</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D145" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4992,13 +4968,13 @@
         <v>1913</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D146" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5006,13 +4982,13 @@
         <v>1918</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D147" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5020,13 +4996,13 @@
         <v>1918</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D148" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5034,13 +5010,13 @@
         <v>1918</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D149" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5048,13 +5024,13 @@
         <v>1918</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D150" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5062,13 +5038,13 @@
         <v>1918</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D151" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5082,7 +5058,7 @@
         <v>176</v>
       </c>
       <c r="D152" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5096,7 +5072,7 @@
         <v>172</v>
       </c>
       <c r="D153" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5110,7 +5086,7 @@
         <v>174</v>
       </c>
       <c r="D154" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5124,7 +5100,7 @@
         <v>178</v>
       </c>
       <c r="D155" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5138,7 +5114,7 @@
         <v>182</v>
       </c>
       <c r="D156" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5152,7 +5128,7 @@
         <v>90</v>
       </c>
       <c r="D157" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5166,7 +5142,7 @@
         <v>180</v>
       </c>
       <c r="D158" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5174,13 +5150,13 @@
         <v>1934</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D159" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5191,10 +5167,10 @@
         <v>467</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D160" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5202,13 +5178,13 @@
         <v>1934</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D161" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5222,7 +5198,7 @@
         <v>64</v>
       </c>
       <c r="D162" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5233,10 +5209,10 @@
         <v>67</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D163" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5247,10 +5223,10 @@
         <v>303</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D164" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5261,10 +5237,10 @@
         <v>305</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D165" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5275,10 +5251,10 @@
         <v>304</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D166" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5289,10 +5265,10 @@
         <v>302</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D167" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5303,10 +5279,10 @@
         <v>183</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D168" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5320,7 +5296,7 @@
         <v>185</v>
       </c>
       <c r="D169" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5334,7 +5310,7 @@
         <v>187</v>
       </c>
       <c r="D170" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5348,7 +5324,7 @@
         <v>193</v>
       </c>
       <c r="D171" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5362,7 +5338,7 @@
         <v>189</v>
       </c>
       <c r="D172" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5376,7 +5352,7 @@
         <v>191</v>
       </c>
       <c r="D173" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5390,7 +5366,7 @@
         <v>205</v>
       </c>
       <c r="D174" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5404,7 +5380,7 @@
         <v>195</v>
       </c>
       <c r="D175" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5418,7 +5394,7 @@
         <v>197</v>
       </c>
       <c r="D176" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5432,7 +5408,7 @@
         <v>203</v>
       </c>
       <c r="D177" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5446,7 +5422,7 @@
         <v>199</v>
       </c>
       <c r="D178" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5460,7 +5436,7 @@
         <v>201</v>
       </c>
       <c r="D179" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5474,7 +5450,7 @@
         <v>128</v>
       </c>
       <c r="D180" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5488,7 +5464,7 @@
         <v>209</v>
       </c>
       <c r="D181" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5502,7 +5478,7 @@
         <v>211</v>
       </c>
       <c r="D182" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5516,7 +5492,7 @@
         <v>207</v>
       </c>
       <c r="D183" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5530,7 +5506,7 @@
         <v>311</v>
       </c>
       <c r="D184" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5544,7 +5520,7 @@
         <v>307</v>
       </c>
       <c r="D185" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5558,7 +5534,7 @@
         <v>309</v>
       </c>
       <c r="D186" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5572,7 +5548,7 @@
         <v>313</v>
       </c>
       <c r="D187" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5586,7 +5562,7 @@
         <v>315</v>
       </c>
       <c r="D188" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5594,13 +5570,13 @@
         <v>1978</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D189" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5614,7 +5590,7 @@
         <v>213</v>
       </c>
       <c r="D190" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5628,7 +5604,7 @@
         <v>131</v>
       </c>
       <c r="D191" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5642,7 +5618,7 @@
         <v>134</v>
       </c>
       <c r="D192" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5656,7 +5632,7 @@
         <v>136</v>
       </c>
       <c r="D193" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5670,7 +5646,7 @@
         <v>215</v>
       </c>
       <c r="D194" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5684,7 +5660,7 @@
         <v>217</v>
       </c>
       <c r="D195" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5698,7 +5674,7 @@
         <v>219</v>
       </c>
       <c r="D196" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5712,7 +5688,7 @@
         <v>221</v>
       </c>
       <c r="D197" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5726,7 +5702,7 @@
         <v>225</v>
       </c>
       <c r="D198" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5740,7 +5716,7 @@
         <v>223</v>
       </c>
       <c r="D199" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5754,7 +5730,7 @@
         <v>219</v>
       </c>
       <c r="D200" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5765,10 +5741,10 @@
         <v>226</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D201" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5776,13 +5752,13 @@
         <v>2001</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D202" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5790,13 +5766,13 @@
         <v>2001</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D203" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5807,10 +5783,10 @@
         <v>347</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D204" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5818,13 +5794,13 @@
         <v>2003</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D205" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5838,7 +5814,7 @@
         <v>230</v>
       </c>
       <c r="D206" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5852,7 +5828,7 @@
         <v>232</v>
       </c>
       <c r="D207" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5866,7 +5842,7 @@
         <v>228</v>
       </c>
       <c r="D208" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5880,7 +5856,7 @@
         <v>234</v>
       </c>
       <c r="D209" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5894,7 +5870,7 @@
         <v>96</v>
       </c>
       <c r="D210" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5908,7 +5884,7 @@
         <v>94</v>
       </c>
       <c r="D211" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5916,13 +5892,13 @@
         <v>2009</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D212" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5933,10 +5909,10 @@
         <v>91</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D213" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5944,13 +5920,13 @@
         <v>2014</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D214" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5958,13 +5934,13 @@
         <v>2014</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D215" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5972,13 +5948,13 @@
         <v>2014</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D216" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5992,7 +5968,7 @@
         <v>239</v>
       </c>
       <c r="D217" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6003,10 +5979,10 @@
         <v>235</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D218" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6020,7 +5996,7 @@
         <v>237</v>
       </c>
       <c r="D219" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6034,7 +6010,7 @@
         <v>245</v>
       </c>
       <c r="D220" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6048,7 +6024,7 @@
         <v>241</v>
       </c>
       <c r="D221" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6062,7 +6038,7 @@
         <v>243</v>
       </c>
       <c r="D222" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6076,7 +6052,7 @@
         <v>247</v>
       </c>
       <c r="D223" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6090,7 +6066,7 @@
         <v>253</v>
       </c>
       <c r="D224" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6104,7 +6080,7 @@
         <v>251</v>
       </c>
       <c r="D225" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6118,7 +6094,7 @@
         <v>255</v>
       </c>
       <c r="D226" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6132,7 +6108,7 @@
         <v>249</v>
       </c>
       <c r="D227" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6146,7 +6122,7 @@
         <v>259</v>
       </c>
       <c r="D228" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6160,7 +6136,7 @@
         <v>261</v>
       </c>
       <c r="D229" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6174,7 +6150,7 @@
         <v>263</v>
       </c>
       <c r="D230" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6185,10 +6161,10 @@
         <v>153</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D231" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6202,7 +6178,7 @@
         <v>257</v>
       </c>
       <c r="D232" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6216,7 +6192,7 @@
         <v>265</v>
       </c>
       <c r="D233" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6224,13 +6200,13 @@
         <v>2028</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D234" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6241,10 +6217,10 @@
         <v>266</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D235" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6258,7 +6234,7 @@
         <v>268</v>
       </c>
       <c r="D236" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6272,7 +6248,7 @@
         <v>215</v>
       </c>
       <c r="D237" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6286,7 +6262,7 @@
         <v>42</v>
       </c>
       <c r="D238" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6300,7 +6276,7 @@
         <v>46</v>
       </c>
       <c r="D239" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6314,7 +6290,7 @@
         <v>52</v>
       </c>
       <c r="D240" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6328,7 +6304,7 @@
         <v>104</v>
       </c>
       <c r="D241" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6342,7 +6318,7 @@
         <v>85</v>
       </c>
       <c r="D242" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6356,7 +6332,7 @@
         <v>29</v>
       </c>
       <c r="D243" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6370,7 +6346,7 @@
         <v>82</v>
       </c>
       <c r="D244" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6381,10 +6357,10 @@
         <v>83</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D245" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6398,7 +6374,7 @@
         <v>271</v>
       </c>
       <c r="D246" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6412,7 +6388,7 @@
         <v>74</v>
       </c>
       <c r="D247" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6426,7 +6402,7 @@
         <v>273</v>
       </c>
       <c r="D248" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6440,7 +6416,7 @@
         <v>85</v>
       </c>
       <c r="D249" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6454,7 +6430,7 @@
         <v>29</v>
       </c>
       <c r="D250" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6468,7 +6444,7 @@
         <v>277</v>
       </c>
       <c r="D251" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6482,7 +6458,7 @@
         <v>275</v>
       </c>
       <c r="D252" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6496,7 +6472,7 @@
         <v>10</v>
       </c>
       <c r="D253" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6510,7 +6486,7 @@
         <v>279</v>
       </c>
       <c r="D254" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6524,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6538,7 +6514,7 @@
         <v>14</v>
       </c>
       <c r="D256" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6546,13 +6522,13 @@
         <v>2054</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>333</v>
       </c>
       <c r="D257" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6563,10 +6539,10 @@
         <v>331</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D258" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6580,7 +6556,7 @@
         <v>335</v>
       </c>
       <c r="D259" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6591,10 +6567,10 @@
         <v>336</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D260" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6605,10 +6581,10 @@
         <v>282</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D261" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6619,10 +6595,10 @@
         <v>283</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D262" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6636,7 +6612,7 @@
         <v>281</v>
       </c>
       <c r="D263" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6650,7 +6626,7 @@
         <v>291</v>
       </c>
       <c r="D264" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6664,7 +6640,7 @@
         <v>287</v>
       </c>
       <c r="D265" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6678,7 +6654,7 @@
         <v>285</v>
       </c>
       <c r="D266" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6692,7 +6668,7 @@
         <v>289</v>
       </c>
       <c r="D267" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6700,13 +6676,13 @@
         <v>2094</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D268" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6714,13 +6690,13 @@
         <v>2094</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D269" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6734,7 +6710,7 @@
         <v>297</v>
       </c>
       <c r="D270" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6748,7 +6724,7 @@
         <v>293</v>
       </c>
       <c r="D271" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6762,7 +6738,7 @@
         <v>126</v>
       </c>
       <c r="D272" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6773,10 +6749,10 @@
         <v>55</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D273" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6790,7 +6766,7 @@
         <v>46</v>
       </c>
       <c r="D274" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6804,7 +6780,7 @@
         <v>295</v>
       </c>
       <c r="D275" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6818,7 +6794,7 @@
         <v>178</v>
       </c>
       <c r="D276" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6832,7 +6808,7 @@
         <v>58</v>
       </c>
       <c r="D277" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6840,13 +6816,13 @@
         <v>2095</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D278" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6860,7 +6836,7 @@
         <v>87</v>
       </c>
       <c r="D279" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6874,7 +6850,7 @@
         <v>301</v>
       </c>
       <c r="D280" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6888,7 +6864,7 @@
         <v>299</v>
       </c>
       <c r="D281" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6902,7 +6878,7 @@
         <v>52</v>
       </c>
       <c r="D282" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6913,10 +6889,10 @@
         <v>125</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D283" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6927,10 +6903,10 @@
         <v>55</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D284" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6944,7 +6920,7 @@
         <v>54</v>
       </c>
       <c r="D285" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6952,13 +6928,13 @@
         <v>2105</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D286" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6972,7 +6948,7 @@
         <v>64</v>
       </c>
       <c r="D287" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6980,13 +6956,13 @@
         <v>2105</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D288" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7000,7 +6976,7 @@
         <v>90</v>
       </c>
       <c r="D289" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7014,7 +6990,7 @@
         <v>92</v>
       </c>
       <c r="D290" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7022,13 +6998,13 @@
         <v>2108</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D291" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7042,7 +7018,7 @@
         <v>33</v>
       </c>
       <c r="D292" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7056,7 +7032,7 @@
         <v>35</v>
       </c>
       <c r="D293" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7064,13 +7040,13 @@
         <v>2108</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D294" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7081,10 +7057,10 @@
         <v>55</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D295" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7092,13 +7068,13 @@
         <v>2127</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D296" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7112,7 +7088,7 @@
         <v>297</v>
       </c>
       <c r="D297" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7123,10 +7099,10 @@
         <v>55</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D298" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7137,10 +7113,10 @@
         <v>294</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D299" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7154,7 +7130,7 @@
         <v>178</v>
       </c>
       <c r="D300" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7168,7 +7144,7 @@
         <v>52</v>
       </c>
       <c r="D301" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7179,10 +7155,10 @@
         <v>55</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D302" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7196,7 +7172,7 @@
         <v>42</v>
       </c>
       <c r="D303" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7210,7 +7186,7 @@
         <v>46</v>
       </c>
       <c r="D304" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7224,7 +7200,7 @@
         <v>52</v>
       </c>
       <c r="D305" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7232,13 +7208,13 @@
         <v>2131</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D306" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7252,7 +7228,7 @@
         <v>297</v>
       </c>
       <c r="D307" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7263,10 +7239,10 @@
         <v>55</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D308" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7280,7 +7256,7 @@
         <v>295</v>
       </c>
       <c r="D309" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7294,7 +7270,7 @@
         <v>316</v>
       </c>
       <c r="D310" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7308,7 +7284,7 @@
         <v>52</v>
       </c>
       <c r="D311" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7322,7 +7298,7 @@
         <v>320</v>
       </c>
       <c r="D312" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7336,7 +7312,7 @@
         <v>322</v>
       </c>
       <c r="D313" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7350,7 +7326,7 @@
         <v>318</v>
       </c>
       <c r="D314" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7364,7 +7340,7 @@
         <v>324</v>
       </c>
       <c r="D315" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7378,7 +7354,7 @@
         <v>160</v>
       </c>
       <c r="D316" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7392,7 +7368,7 @@
         <v>158</v>
       </c>
       <c r="D317" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7406,7 +7382,7 @@
         <v>156</v>
       </c>
       <c r="D318" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7420,7 +7396,7 @@
         <v>326</v>
       </c>
       <c r="D319" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7428,13 +7404,13 @@
         <v>2195</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D320" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7448,7 +7424,7 @@
         <v>70</v>
       </c>
       <c r="D321" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7462,7 +7438,7 @@
         <v>74</v>
       </c>
       <c r="D322" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7476,7 +7452,7 @@
         <v>78</v>
       </c>
       <c r="D323" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7484,13 +7460,13 @@
         <v>2252</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D324" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7498,13 +7474,13 @@
         <v>2252</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D325" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7512,13 +7488,13 @@
         <v>2252</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D326" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7526,13 +7502,13 @@
         <v>2252</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D327" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7540,13 +7516,13 @@
         <v>2252</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D328" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7560,7 +7536,7 @@
         <v>33</v>
       </c>
       <c r="D329" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7574,7 +7550,7 @@
         <v>35</v>
       </c>
       <c r="D330" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7585,10 +7561,10 @@
         <v>327</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D331" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7602,7 +7578,7 @@
         <v>16</v>
       </c>
       <c r="D332" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7616,7 +7592,7 @@
         <v>20</v>
       </c>
       <c r="D333" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7630,7 +7606,7 @@
         <v>329</v>
       </c>
       <c r="D334" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7641,10 +7617,10 @@
         <v>21</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D335" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7658,7 +7634,7 @@
         <v>16</v>
       </c>
       <c r="D336" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7669,10 +7645,10 @@
         <v>330</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D337" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7680,13 +7656,13 @@
         <v>2344</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>333</v>
       </c>
       <c r="D338" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7700,7 +7676,7 @@
         <v>332</v>
       </c>
       <c r="D339" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7714,7 +7690,7 @@
         <v>335</v>
       </c>
       <c r="D340" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7725,10 +7701,10 @@
         <v>336</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D341" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7739,10 +7715,10 @@
         <v>183</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D342" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7753,10 +7729,10 @@
         <v>337</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D343" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7770,7 +7746,7 @@
         <v>185</v>
       </c>
       <c r="D344" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7784,7 +7760,7 @@
         <v>187</v>
       </c>
       <c r="D345" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7795,10 +7771,10 @@
         <v>340</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D346" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -7812,7 +7788,7 @@
         <v>342</v>
       </c>
       <c r="D347" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -7826,7 +7802,7 @@
         <v>339</v>
       </c>
       <c r="D348" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -7840,7 +7816,7 @@
         <v>182</v>
       </c>
       <c r="D349" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -7854,7 +7830,7 @@
         <v>90</v>
       </c>
       <c r="D350" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -7868,7 +7844,7 @@
         <v>180</v>
       </c>
       <c r="D351" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -7882,7 +7858,7 @@
         <v>344</v>
       </c>
       <c r="D352" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -7896,7 +7872,7 @@
         <v>346</v>
       </c>
       <c r="D353" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7910,7 +7886,7 @@
         <v>58</v>
       </c>
       <c r="D354" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7918,13 +7894,13 @@
         <v>2566</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D355" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -7932,13 +7908,13 @@
         <v>2566</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D356" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -7946,13 +7922,13 @@
         <v>2566</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D357" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -7960,13 +7936,13 @@
         <v>2569</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D358" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -7974,13 +7950,13 @@
         <v>2569</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D359" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -7988,13 +7964,13 @@
         <v>2569</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D360" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8008,7 +7984,7 @@
         <v>94</v>
       </c>
       <c r="D361" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8016,13 +7992,13 @@
         <v>2574</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D362" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8030,13 +8006,13 @@
         <v>2586</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D363" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8044,13 +8020,13 @@
         <v>2586</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D364" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8064,7 +8040,7 @@
         <v>128</v>
       </c>
       <c r="D365" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8078,7 +8054,7 @@
         <v>211</v>
       </c>
       <c r="D366" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8092,7 +8068,7 @@
         <v>207</v>
       </c>
       <c r="D367" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8106,7 +8082,7 @@
         <v>350</v>
       </c>
       <c r="D368" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8120,7 +8096,7 @@
         <v>348</v>
       </c>
       <c r="D369" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8134,7 +8110,7 @@
         <v>352</v>
       </c>
       <c r="D370" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8148,7 +8124,7 @@
         <v>209</v>
       </c>
       <c r="D371" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8162,7 +8138,7 @@
         <v>358</v>
       </c>
       <c r="D372" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8176,7 +8152,7 @@
         <v>354</v>
       </c>
       <c r="D373" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8190,7 +8166,7 @@
         <v>356</v>
       </c>
       <c r="D374" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8204,7 +8180,7 @@
         <v>360</v>
       </c>
       <c r="D375" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8218,7 +8194,7 @@
         <v>365</v>
       </c>
       <c r="D376" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8232,7 +8208,7 @@
         <v>362</v>
       </c>
       <c r="D377" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8243,10 +8219,10 @@
         <v>363</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D378" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8260,7 +8236,7 @@
         <v>253</v>
       </c>
       <c r="D379" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8274,7 +8250,7 @@
         <v>112</v>
       </c>
       <c r="D380" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8288,7 +8264,7 @@
         <v>367</v>
       </c>
       <c r="D381" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8302,7 +8278,7 @@
         <v>58</v>
       </c>
       <c r="D382" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8316,7 +8292,7 @@
         <v>52</v>
       </c>
       <c r="D383" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8327,10 +8303,10 @@
         <v>506</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D384" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8344,7 +8320,7 @@
         <v>509</v>
       </c>
       <c r="D385" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8358,7 +8334,7 @@
         <v>511</v>
       </c>
       <c r="D386" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8369,10 +8345,10 @@
         <v>506</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D387" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8386,7 +8362,7 @@
         <v>509</v>
       </c>
       <c r="D388" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8400,7 +8376,7 @@
         <v>511</v>
       </c>
       <c r="D389" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8414,7 +8390,7 @@
         <v>369</v>
       </c>
       <c r="D390" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8428,7 +8404,7 @@
         <v>371</v>
       </c>
       <c r="D391" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8442,7 +8418,7 @@
         <v>369</v>
       </c>
       <c r="D392" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8456,7 +8432,7 @@
         <v>373</v>
       </c>
       <c r="D393" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8470,7 +8446,7 @@
         <v>375</v>
       </c>
       <c r="D394" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8478,13 +8454,13 @@
         <v>2765</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D395" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8492,13 +8468,13 @@
         <v>2765</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D396" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8506,13 +8482,13 @@
         <v>2811</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D397" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8520,13 +8496,13 @@
         <v>2811</v>
       </c>
       <c r="B398" s="11" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D398" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8534,13 +8510,13 @@
         <v>2811</v>
       </c>
       <c r="B399" s="11" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C399" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D399" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8548,13 +8524,13 @@
         <v>2816</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D400" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8568,7 +8544,7 @@
         <v>381</v>
       </c>
       <c r="D401" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8582,7 +8558,7 @@
         <v>379</v>
       </c>
       <c r="D402" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8593,10 +8569,10 @@
         <v>377</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D403" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8610,7 +8586,7 @@
         <v>383</v>
       </c>
       <c r="D404" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8624,7 +8600,7 @@
         <v>385</v>
       </c>
       <c r="D405" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8638,7 +8614,7 @@
         <v>387</v>
       </c>
       <c r="D406" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8649,10 +8625,10 @@
         <v>390</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D407" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8666,7 +8642,7 @@
         <v>389</v>
       </c>
       <c r="D408" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8680,7 +8656,7 @@
         <v>392</v>
       </c>
       <c r="D409" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8688,13 +8664,13 @@
         <v>2861</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>394</v>
       </c>
       <c r="D410" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8705,10 +8681,10 @@
         <v>393</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D411" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8719,10 +8695,10 @@
         <v>395</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="D412" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8736,7 +8712,7 @@
         <v>295</v>
       </c>
       <c r="D413" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8750,7 +8726,7 @@
         <v>131</v>
       </c>
       <c r="D414" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8764,7 +8740,7 @@
         <v>397</v>
       </c>
       <c r="D415" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8778,7 +8754,7 @@
         <v>136</v>
       </c>
       <c r="D416" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8786,13 +8762,13 @@
         <v>2889</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="D417" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -8800,13 +8776,13 @@
         <v>2889</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D418" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -8814,13 +8790,13 @@
         <v>2904</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D419" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -8828,13 +8804,13 @@
         <v>2904</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D420" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -8842,13 +8818,13 @@
         <v>2905</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D421" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -8856,13 +8832,13 @@
         <v>2905</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D422" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -8870,13 +8846,13 @@
         <v>2905</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D423" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -8890,7 +8866,7 @@
         <v>87</v>
       </c>
       <c r="D424" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -8904,7 +8880,7 @@
         <v>399</v>
       </c>
       <c r="D425" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -8918,7 +8894,7 @@
         <v>85</v>
       </c>
       <c r="D426" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -8932,7 +8908,7 @@
         <v>29</v>
       </c>
       <c r="D427" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -8946,7 +8922,7 @@
         <v>82</v>
       </c>
       <c r="D428" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -8957,10 +8933,10 @@
         <v>83</v>
       </c>
       <c r="C429" s="13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D429" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -8968,13 +8944,13 @@
         <v>2923</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D430" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -8982,13 +8958,13 @@
         <v>2923</v>
       </c>
       <c r="B431" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D431" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -8996,13 +8972,13 @@
         <v>2923</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C432" s="9" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D432" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9010,13 +8986,13 @@
         <v>2923</v>
       </c>
       <c r="B433" s="11" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D433" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9024,13 +9000,13 @@
         <v>2923</v>
       </c>
       <c r="B434" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D434" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9044,7 +9020,7 @@
         <v>401</v>
       </c>
       <c r="D435" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9058,7 +9034,7 @@
         <v>405</v>
       </c>
       <c r="D436" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9072,7 +9048,7 @@
         <v>403</v>
       </c>
       <c r="D437" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9086,7 +9062,7 @@
         <v>110</v>
       </c>
       <c r="D438" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9100,7 +9076,7 @@
         <v>106</v>
       </c>
       <c r="D439" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9114,7 +9090,7 @@
         <v>108</v>
       </c>
       <c r="D440" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9128,7 +9104,7 @@
         <v>407</v>
       </c>
       <c r="D441" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9139,10 +9115,10 @@
         <v>38</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D442" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9156,7 +9132,7 @@
         <v>50</v>
       </c>
       <c r="D443" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9170,49 +9146,49 @@
         <v>52</v>
       </c>
       <c r="D444" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="4">
-        <v>3028</v>
-      </c>
-      <c r="B445" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="C445" s="5" t="s">
-        <v>689</v>
+      <c r="A445" s="7">
+        <v>3071</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>415</v>
       </c>
       <c r="D445" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="446" spans="1:4">
-      <c r="A446" s="2">
-        <v>3028</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>625</v>
+      <c r="A446" s="7">
+        <v>3071</v>
+      </c>
+      <c r="B446" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="D446" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="2">
-        <v>3028</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>691</v>
+      <c r="A447" s="7">
+        <v>3071</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="D447" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9220,83 +9196,83 @@
         <v>3071</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D448" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="7">
-        <v>3071</v>
-      </c>
-      <c r="B449" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C449" s="10" t="s">
-        <v>411</v>
+      <c r="A449" s="4">
+        <v>13621</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="D449" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="7">
-        <v>3071</v>
-      </c>
-      <c r="B450" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C450" s="10" t="s">
-        <v>409</v>
+      <c r="A450" s="2">
+        <v>13621</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="D450" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="7">
-        <v>3071</v>
+        <v>13649</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D451" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="4">
-        <v>13621</v>
-      </c>
-      <c r="B452" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C452" s="5" t="s">
-        <v>409</v>
+      <c r="A452" s="7">
+        <v>13649</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="D452" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="2">
-        <v>13621</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>693</v>
+      <c r="A453" s="7">
+        <v>13649</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="D453" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9304,69 +9280,69 @@
         <v>13649</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D454" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="7">
-        <v>13649</v>
-      </c>
-      <c r="B455" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C455" s="10" t="s">
-        <v>417</v>
+      <c r="A455" s="2">
+        <v>13682</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>745</v>
       </c>
       <c r="D455" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="7">
-        <v>13649</v>
+        <v>13717</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D456" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="7">
-        <v>13649</v>
+        <v>13717</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>418</v>
+        <v>222</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>419</v>
+        <v>223</v>
       </c>
       <c r="D457" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="458" spans="1:4">
-      <c r="A458" s="2">
-        <v>13682</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>753</v>
+      <c r="A458" s="7">
+        <v>13717</v>
+      </c>
+      <c r="B458" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C458" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D458" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9374,69 +9350,69 @@
         <v>13717</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>424</v>
+        <v>220</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>425</v>
+        <v>221</v>
       </c>
       <c r="D459" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="7">
-        <v>13717</v>
+        <v>14098</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>222</v>
+        <v>426</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>223</v>
+        <v>427</v>
       </c>
       <c r="D460" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="7">
-        <v>13717</v>
+        <v>14136</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>218</v>
+        <v>430</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>219</v>
+        <v>431</v>
       </c>
       <c r="D461" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="7">
-        <v>13717</v>
+        <v>14136</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>220</v>
+        <v>428</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>221</v>
+        <v>429</v>
       </c>
       <c r="D462" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="7">
-        <v>14098</v>
+        <v>14136</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D463" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9444,13 +9420,13 @@
         <v>14136</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D464" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9458,69 +9434,69 @@
         <v>14136</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D465" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="7">
-        <v>14136</v>
-      </c>
-      <c r="B466" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C466" s="10" t="s">
-        <v>437</v>
+      <c r="A466" s="2">
+        <v>14145</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D466" t="s">
-        <v>729</v>
+        <v>798</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="7">
-        <v>14136</v>
+        <v>14356</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D467" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="7">
-        <v>14136</v>
+        <v>14356</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D468" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="2">
-        <v>14145</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>287</v>
+      <c r="A469" s="7">
+        <v>14356</v>
+      </c>
+      <c r="B469" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D469" t="s">
-        <v>806</v>
+        <v>721</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9528,55 +9504,55 @@
         <v>14356</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>438</v>
+        <v>51</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="D470" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="7">
-        <v>14356</v>
-      </c>
-      <c r="B471" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C471" s="10" t="s">
-        <v>441</v>
+        <v>14777</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>731</v>
       </c>
       <c r="D471" t="s">
-        <v>729</v>
+        <v>794</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="7">
-        <v>14356</v>
-      </c>
-      <c r="B472" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C472" s="10" t="s">
-        <v>87</v>
+        <v>14777</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>733</v>
       </c>
       <c r="D472" t="s">
-        <v>729</v>
+        <v>794</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="7">
-        <v>14356</v>
-      </c>
-      <c r="B473" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C473" s="10" t="s">
-        <v>52</v>
+        <v>14777</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>735</v>
       </c>
       <c r="D473" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9584,13 +9560,13 @@
         <v>14777</v>
       </c>
       <c r="B474" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D474" t="s">
         <v>740</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D474" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9598,13 +9574,13 @@
         <v>14777</v>
       </c>
       <c r="B475" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C475" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C475" s="3" t="s">
-        <v>741</v>
-      </c>
       <c r="D475" t="s">
-        <v>802</v>
+        <v>736</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9612,122 +9588,122 @@
         <v>14777</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>743</v>
       </c>
       <c r="D476" t="s">
-        <v>744</v>
+        <v>794</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="7">
-        <v>14777</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>746</v>
+        <v>237068</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="D477" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="7">
-        <v>14777</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>750</v>
+        <v>237068</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C478" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="D478" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="7">
-        <v>14777</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>751</v>
+        <v>237068</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="D479" t="s">
-        <v>802</v>
+        <v>730</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="7">
-        <v>237068</v>
+        <v>237094</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>5</v>
+        <v>446</v>
       </c>
       <c r="C480" s="10" t="s">
-        <v>6</v>
+        <v>447</v>
       </c>
       <c r="D480" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="7">
-        <v>237068</v>
+        <v>237094</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="D481" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="7">
-        <v>237068</v>
+        <v>237094</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>444</v>
+        <v>57</v>
       </c>
       <c r="C482" s="10" t="s">
-        <v>445</v>
+        <v>58</v>
       </c>
       <c r="D482" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="7">
-        <v>237094</v>
+        <v>237136</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>446</v>
+        <v>19</v>
       </c>
       <c r="C483" s="10" t="s">
-        <v>447</v>
+        <v>20</v>
       </c>
       <c r="D483" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="7">
-        <v>237094</v>
+        <v>237136</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>343</v>
+        <v>21</v>
       </c>
       <c r="C484" s="10" t="s">
-        <v>344</v>
+        <v>534</v>
       </c>
       <c r="D484" t="s">
         <v>729</v>
@@ -9735,450 +9711,450 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="7">
-        <v>237094</v>
+        <v>237136</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D485" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="7">
-        <v>237136</v>
+        <v>265248</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>19</v>
+        <v>456</v>
       </c>
       <c r="C486" s="10" t="s">
-        <v>20</v>
+        <v>558</v>
       </c>
       <c r="D486" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="7">
-        <v>237136</v>
+        <v>265248</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>21</v>
+        <v>454</v>
       </c>
       <c r="C487" s="10" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="D487" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="7">
-        <v>237136</v>
+        <v>265374</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="C488" s="10" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="D488" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="7">
-        <v>237166</v>
+        <v>265374</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>448</v>
+        <v>214</v>
       </c>
       <c r="C489" s="10" t="s">
-        <v>449</v>
+        <v>215</v>
       </c>
       <c r="D489" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="7">
-        <v>237166</v>
+        <v>265374</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C490" s="10" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D490" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="7">
-        <v>237166</v>
+        <v>265374</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>452</v>
+        <v>218</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>453</v>
+        <v>219</v>
       </c>
       <c r="D491" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="7">
-        <v>265248</v>
-      </c>
-      <c r="B492" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C492" s="10" t="s">
-        <v>562</v>
+      <c r="A492" s="2">
+        <v>265471</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="D492" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="7">
-        <v>265248</v>
-      </c>
-      <c r="B493" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C493" s="10" t="s">
-        <v>455</v>
+      <c r="A493" s="2">
+        <v>265471</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="D493" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="7">
-        <v>265374</v>
-      </c>
-      <c r="B494" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C494" s="10" t="s">
-        <v>458</v>
+      <c r="A494" s="4">
+        <v>265471</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>689</v>
       </c>
       <c r="D494" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="7">
-        <v>265374</v>
+        <v>296369</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="D495" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="7">
-        <v>265374</v>
+        <v>296369</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D496" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="7">
-        <v>265374</v>
+        <v>296382</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>218</v>
+        <v>398</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>219</v>
+        <v>399</v>
       </c>
       <c r="D497" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="2">
-        <v>265471</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>699</v>
+      <c r="A498" s="7">
+        <v>296382</v>
+      </c>
+      <c r="B498" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C498" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D498" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
     </row>
     <row r="499" spans="1:4">
-      <c r="A499" s="2">
-        <v>265471</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>695</v>
+      <c r="A499" s="7">
+        <v>296382</v>
+      </c>
+      <c r="B499" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>535</v>
       </c>
       <c r="D499" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="4">
-        <v>265471</v>
-      </c>
-      <c r="B500" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="C500" s="5" t="s">
-        <v>697</v>
+      <c r="A500" s="7">
+        <v>296393</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="D500" t="s">
-        <v>735</v>
+        <v>794</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="7">
-        <v>296369</v>
+        <v>296393</v>
       </c>
       <c r="B501" s="10" t="s">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="D501" t="s">
-        <v>729</v>
+        <v>794</v>
       </c>
     </row>
     <row r="502" spans="1:4">
-      <c r="A502" s="7">
-        <v>296369</v>
-      </c>
-      <c r="B502" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C502" s="10" t="s">
-        <v>462</v>
+      <c r="A502" s="4">
+        <v>296424</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D502" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="503" spans="1:4">
-      <c r="A503" s="7">
-        <v>296382</v>
-      </c>
-      <c r="B503" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C503" s="10" t="s">
-        <v>399</v>
+      <c r="A503" s="2">
+        <v>296424</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>693</v>
       </c>
       <c r="D503" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="504" spans="1:4">
-      <c r="A504" s="7">
-        <v>296382</v>
-      </c>
-      <c r="B504" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C504" s="10" t="s">
-        <v>82</v>
+      <c r="A504" s="4">
+        <v>296444</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>699</v>
       </c>
       <c r="D504" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="505" spans="1:4">
-      <c r="A505" s="7">
-        <v>296382</v>
-      </c>
-      <c r="B505" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C505" s="10" t="s">
-        <v>539</v>
+      <c r="A505" s="2">
+        <v>296444</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>697</v>
       </c>
       <c r="D505" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="506" spans="1:4">
-      <c r="A506" s="7">
-        <v>296393</v>
-      </c>
-      <c r="B506" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C506" s="10" t="s">
-        <v>464</v>
+      <c r="A506" s="2">
+        <v>296444</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>701</v>
       </c>
       <c r="D506" t="s">
-        <v>802</v>
+        <v>714</v>
       </c>
     </row>
     <row r="507" spans="1:4">
-      <c r="A507" s="7">
-        <v>296393</v>
-      </c>
-      <c r="B507" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C507" s="10" t="s">
-        <v>466</v>
+      <c r="A507" s="4">
+        <v>296444</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="D507" t="s">
-        <v>802</v>
+        <v>714</v>
       </c>
     </row>
     <row r="508" spans="1:4">
-      <c r="A508" s="4">
-        <v>296424</v>
-      </c>
-      <c r="B508" s="5" t="s">
+      <c r="A508" s="7">
+        <v>296464</v>
+      </c>
+      <c r="B508" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D508" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="7">
+        <v>296464</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="D509" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="7">
+        <v>296464</v>
+      </c>
+      <c r="B510" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C508" s="5" t="s">
+      <c r="C510" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D508" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
-      <c r="A509" s="2">
-        <v>296424</v>
-      </c>
-      <c r="B509" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D509" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="4">
-        <v>296444</v>
-      </c>
-      <c r="B510" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="C510" s="5" t="s">
-        <v>707</v>
-      </c>
       <c r="D510" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="2">
-        <v>296444</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>705</v>
+      <c r="A511" s="7">
+        <v>321422</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>474</v>
       </c>
       <c r="D511" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="512" spans="1:4">
-      <c r="A512" s="2">
-        <v>296444</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>709</v>
+      <c r="A512" s="7">
+        <v>321422</v>
+      </c>
+      <c r="B512" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>471</v>
       </c>
       <c r="D512" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="513" spans="1:4">
-      <c r="A513" s="4">
-        <v>296444</v>
-      </c>
-      <c r="B513" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="C513" s="5" t="s">
-        <v>703</v>
+      <c r="A513" s="7">
+        <v>321422</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>478</v>
       </c>
       <c r="D513" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="7">
-        <v>296464</v>
+        <v>321422</v>
       </c>
       <c r="B514" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C514" s="10" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D514" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="7">
-        <v>296464</v>
+        <v>321422</v>
       </c>
       <c r="B515" s="10" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D515" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="7">
-        <v>296464</v>
+        <v>321422</v>
       </c>
       <c r="B516" s="10" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="C516" s="10" t="s">
-        <v>64</v>
+        <v>476</v>
       </c>
       <c r="D516" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10186,755 +10162,559 @@
         <v>321422</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D517" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="7">
-        <v>321422</v>
+        <v>333716</v>
       </c>
       <c r="B518" s="10" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="C518" s="10" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="D518" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="7">
-        <v>321422</v>
+        <v>333716</v>
       </c>
       <c r="B519" s="10" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D519" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="7">
-        <v>321422</v>
+        <v>333716</v>
       </c>
       <c r="B520" s="10" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C520" s="10" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D520" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="7">
-        <v>321422</v>
+        <v>333716</v>
       </c>
       <c r="B521" s="10" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C521" s="10" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D521" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="7">
-        <v>321422</v>
+        <v>333716</v>
       </c>
       <c r="B522" s="10" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="C522" s="10" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="D522" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="523" spans="1:4">
-      <c r="A523" s="7">
-        <v>321422</v>
-      </c>
-      <c r="B523" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C523" s="10" t="s">
-        <v>482</v>
+      <c r="A523" s="4">
+        <v>374458</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>705</v>
       </c>
       <c r="D523" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="524" spans="1:4">
-      <c r="A524" s="7">
-        <v>333716</v>
-      </c>
-      <c r="B524" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C524" s="10" t="s">
-        <v>490</v>
+      <c r="A524" s="2">
+        <v>374458</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D524" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="7">
-        <v>333716</v>
-      </c>
-      <c r="B525" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C525" s="10" t="s">
-        <v>488</v>
+      <c r="A525" s="4">
+        <v>374458</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="D525" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="7">
-        <v>333716</v>
+        <v>374576</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C526" s="10" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D526" t="s">
-        <v>725</v>
+        <v>797</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="7">
-        <v>333716</v>
+        <v>374576</v>
       </c>
       <c r="B527" s="10" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="D527" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="7">
-        <v>333716</v>
+        <v>374576</v>
       </c>
       <c r="B528" s="10" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C528" s="10" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D528" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="529" spans="1:4">
-      <c r="A529" s="4">
-        <v>374458</v>
-      </c>
-      <c r="B529" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="C529" s="5" t="s">
-        <v>713</v>
+      <c r="A529" s="7">
+        <v>374576</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>497</v>
       </c>
       <c r="D529" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="530" spans="1:4">
-      <c r="A530" s="2">
-        <v>374458</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>187</v>
+      <c r="A530" s="7">
+        <v>471320</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C530" s="10" t="s">
+        <v>501</v>
       </c>
       <c r="D530" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="531" spans="1:4">
-      <c r="A531" s="4">
-        <v>374458</v>
-      </c>
-      <c r="B531" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="C531" s="5" t="s">
-        <v>711</v>
+      <c r="A531" s="7">
+        <v>471320</v>
+      </c>
+      <c r="B531" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="D531" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="7">
-        <v>374576</v>
+        <v>471320</v>
       </c>
       <c r="B532" s="10" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C532" s="10" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D532" t="s">
-        <v>805</v>
+        <v>714</v>
       </c>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="7">
-        <v>374576</v>
+        <v>471320</v>
       </c>
       <c r="B533" s="10" t="s">
-        <v>495</v>
+        <v>147</v>
       </c>
       <c r="C533" s="10" t="s">
-        <v>563</v>
+        <v>148</v>
       </c>
       <c r="D533" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="7">
-        <v>374576</v>
+        <v>471320</v>
       </c>
       <c r="B534" s="10" t="s">
-        <v>498</v>
+        <v>149</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>499</v>
+        <v>150</v>
       </c>
       <c r="D534" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="7">
-        <v>374576</v>
+        <v>507542</v>
       </c>
       <c r="B535" s="10" t="s">
-        <v>496</v>
+        <v>19</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="D535" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="7">
-        <v>471320</v>
+        <v>507542</v>
       </c>
       <c r="B536" s="10" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C536" s="10" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D536" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="7">
-        <v>471320</v>
+        <v>507542</v>
       </c>
       <c r="B537" s="10" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="D537" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="7">
-        <v>471320</v>
+        <v>507613</v>
       </c>
       <c r="B538" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C538" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D538" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="7">
-        <v>471320</v>
+        <v>507613</v>
       </c>
       <c r="B539" s="10" t="s">
-        <v>147</v>
+        <v>508</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>148</v>
+        <v>509</v>
       </c>
       <c r="D539" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="7">
-        <v>471320</v>
+        <v>507613</v>
       </c>
       <c r="B540" s="10" t="s">
-        <v>149</v>
+        <v>512</v>
       </c>
       <c r="C540" s="10" t="s">
-        <v>150</v>
+        <v>513</v>
       </c>
       <c r="D540" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="7">
-        <v>507542</v>
+        <v>507613</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="C541" s="10" t="s">
-        <v>20</v>
+        <v>511</v>
       </c>
       <c r="D541" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="542" spans="1:4">
-      <c r="A542" s="7">
-        <v>507542</v>
-      </c>
-      <c r="B542" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="C542" s="10" t="s">
-        <v>505</v>
+      <c r="A542" s="2">
+        <v>507928</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="D542" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="543" spans="1:4">
-      <c r="A543" s="7">
-        <v>507542</v>
-      </c>
-      <c r="B543" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C543" s="10" t="s">
-        <v>16</v>
+      <c r="A543" s="4">
+        <v>507928</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="D543" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="7">
-        <v>507613</v>
-      </c>
-      <c r="B544" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C544" s="10" t="s">
-        <v>507</v>
+      <c r="A544" s="2">
+        <v>507928</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="D544" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="545" spans="1:4">
-      <c r="A545" s="7">
-        <v>507613</v>
-      </c>
-      <c r="B545" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="C545" s="10" t="s">
-        <v>509</v>
+      <c r="A545" s="2">
+        <v>507928</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="D545" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="546" spans="1:4">
-      <c r="A546" s="7">
-        <v>507613</v>
-      </c>
-      <c r="B546" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C546" s="10" t="s">
-        <v>513</v>
+      <c r="A546" s="4">
+        <v>507928</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>710</v>
       </c>
       <c r="D546" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="547" spans="1:4">
-      <c r="A547" s="7">
-        <v>507613</v>
-      </c>
-      <c r="B547" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="C547" s="10" t="s">
-        <v>511</v>
+      <c r="A547" s="2">
+        <v>507986</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="D547" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
     </row>
     <row r="548" spans="1:4">
-      <c r="A548" s="2">
-        <v>507928</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>717</v>
+      <c r="A548" s="7">
+        <v>558969</v>
+      </c>
+      <c r="B548" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C548" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="D548" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="549" spans="1:4">
-      <c r="A549" s="4">
-        <v>507928</v>
-      </c>
-      <c r="B549" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="C549" s="5" t="s">
+      <c r="A549" s="7">
+        <v>558969</v>
+      </c>
+      <c r="B549" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D549" t="s">
         <v>716</v>
       </c>
-      <c r="D549" t="s">
-        <v>726</v>
-      </c>
     </row>
     <row r="550" spans="1:4">
-      <c r="A550" s="2">
-        <v>507928</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C550" s="3" t="s">
-        <v>714</v>
+      <c r="A550" s="7">
+        <v>558969</v>
+      </c>
+      <c r="B550" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="D550" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
     </row>
     <row r="551" spans="1:4">
-      <c r="A551" s="2">
-        <v>507928</v>
-      </c>
-      <c r="B551" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C551" s="3" t="s">
-        <v>719</v>
+      <c r="A551" s="7">
+        <v>558969</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="D551" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
     </row>
     <row r="552" spans="1:4">
-      <c r="A552" s="4">
-        <v>507928</v>
-      </c>
-      <c r="B552" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="C552" s="5" t="s">
-        <v>718</v>
+      <c r="A552" s="7">
+        <v>559078</v>
+      </c>
+      <c r="B552" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>517</v>
       </c>
       <c r="D552" t="s">
-        <v>727</v>
+        <v>794</v>
       </c>
     </row>
     <row r="553" spans="1:4">
-      <c r="A553" s="2">
-        <v>507986</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>721</v>
+      <c r="A553" s="7">
+        <v>559078</v>
+      </c>
+      <c r="B553" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="D553" t="s">
-        <v>722</v>
+        <v>794</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="7">
-        <v>558969</v>
+        <v>932423</v>
       </c>
       <c r="B554" s="10" t="s">
-        <v>308</v>
+        <v>518</v>
       </c>
       <c r="C554" s="10" t="s">
-        <v>309</v>
+        <v>519</v>
       </c>
       <c r="D554" t="s">
-        <v>723</v>
+        <v>800</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="7">
-        <v>558969</v>
+        <v>932423</v>
       </c>
       <c r="B555" s="10" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="C555" s="10" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="D555" t="s">
-        <v>724</v>
+        <v>800</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="7">
-        <v>558969</v>
+        <v>932423</v>
       </c>
       <c r="B556" s="10" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="C556" s="10" t="s">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="D556" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4">
-      <c r="A557" s="7">
-        <v>558969</v>
-      </c>
-      <c r="B557" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C557" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D557" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
-      <c r="A558" s="7">
-        <v>559078</v>
-      </c>
-      <c r="B558" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="C558" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="D558" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
-      <c r="A559" s="7">
-        <v>559078</v>
-      </c>
-      <c r="B559" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C559" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D559" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4">
-      <c r="A560" s="7">
-        <v>559148</v>
-      </c>
-      <c r="B560" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C560" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="D560" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
-      <c r="A561" s="7">
-        <v>559148</v>
-      </c>
-      <c r="B561" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C561" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D561" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="7">
-        <v>559148</v>
-      </c>
-      <c r="B562" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="C562" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="D562" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
-      <c r="A563" s="7">
-        <v>932423</v>
-      </c>
-      <c r="B563" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C563" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="D563" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4">
-      <c r="A564" s="7">
-        <v>932423</v>
-      </c>
-      <c r="B564" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C564" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="D564" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
-      <c r="A565" s="7">
-        <v>932423</v>
-      </c>
-      <c r="B565" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C565" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D565" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4">
-      <c r="A566" s="7">
-        <v>932494</v>
-      </c>
-      <c r="B566" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="C566" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D566" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
-      <c r="A567" s="7">
-        <v>932494</v>
-      </c>
-      <c r="B567" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C567" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="D567" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
-      <c r="A568" s="7">
-        <v>932494</v>
-      </c>
-      <c r="B568" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C568" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D568" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
-      <c r="A569" s="7">
-        <v>932494</v>
-      </c>
-      <c r="B569" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="C569" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="D569" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
-      <c r="A570" s="7">
-        <v>932494</v>
-      </c>
-      <c r="B570" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C570" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D570" t="s">
-        <v>725</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
